--- a/fuentes/contenidos/grado10/guion01/Escaleta_CS_10_01_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion01/Escaleta_CS_10_01_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zambanitos\Documents\MABEL\TRABAJO\PLANETA\REINGENIERIA_AGOSTO\CUADERNOS DE ESTUDIO\guion01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCMarquez\Desktop\Versiones\CienciasSociales\fuentes\contenidos\grado10\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,13 +15,12 @@
     <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="237">
   <si>
     <t>Asignatura</t>
   </si>
@@ -547,9 +546,6 @@
   </si>
   <si>
     <t xml:space="preserve">MAPA CONCEPTUAL </t>
-  </si>
-  <si>
-    <t>Solicitar video</t>
   </si>
   <si>
     <t>RM</t>
@@ -831,12 +827,15 @@
   <si>
     <t>Influencias de la Guerra Fría en el mundo</t>
   </si>
+  <si>
+    <t>El autor escribe las fichas para el docente y para el estudiante</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1558,27 +1557,27 @@
       <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="34" style="5" customWidth="1"/>
-    <col min="5" max="5" width="34.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="24.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="5" customWidth="1"/>
     <col min="7" max="7" width="18" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.75" style="5" customWidth="1"/>
-    <col min="11" max="11" width="15.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="5" customWidth="1"/>
     <col min="12" max="12" width="17" style="5" customWidth="1"/>
-    <col min="13" max="13" width="11.375" style="5"/>
-    <col min="14" max="14" width="24.25" style="5" customWidth="1"/>
-    <col min="15" max="15" width="69.875" style="5" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.375" style="5"/>
+    <col min="13" max="13" width="11.42578125" style="5"/>
+    <col min="14" max="14" width="24.28515625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="69.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="15">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -1595,7 +1594,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1619,7 +1618,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1638,7 +1637,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1657,7 +1656,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1673,7 +1672,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1690,7 +1689,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1707,7 +1706,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1722,7 +1721,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="15">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1737,7 +1736,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1752,7 +1751,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1767,7 +1766,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1782,7 +1781,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1797,7 +1796,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1812,7 +1811,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1827,7 +1826,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1842,7 +1841,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="2:12" ht="15">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="5" t="s">
@@ -1856,7 +1855,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="2:12" ht="15">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="5" t="s">
@@ -1870,7 +1869,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="2:12" ht="15">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="5" t="s">
@@ -1884,7 +1883,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="2:12" ht="15">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="5" t="s">
@@ -1898,7 +1897,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="2:12" ht="15">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1913,7 +1912,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="2:12" ht="15">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -1928,7 +1927,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="2:12" ht="15">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1943,7 +1942,7 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="2:12" ht="15">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1958,7 +1957,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="2:12" ht="15">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1973,7 +1972,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="2:12" ht="15">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1988,7 +1987,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="2:12" ht="15">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -2003,7 +2002,7 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="2:12" ht="15">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -2018,7 +2017,7 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="2:12" ht="15">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -2033,7 +2032,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="2:12" ht="15">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -2048,7 +2047,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="2:12" ht="15">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -2063,7 +2062,7 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="2:12" ht="15">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -2078,7 +2077,7 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="2:12" ht="15">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -2093,7 +2092,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
     </row>
-    <row r="34" spans="2:12" ht="15">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -2108,7 +2107,7 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
     </row>
-    <row r="35" spans="2:12" ht="15">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -2123,7 +2122,7 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
     </row>
-    <row r="36" spans="2:12" ht="15">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -2138,7 +2137,7 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
     </row>
-    <row r="37" spans="2:12" ht="15">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -2153,7 +2152,7 @@
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
     </row>
-    <row r="38" spans="2:12" ht="15">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -2168,7 +2167,7 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="2:12" ht="15">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -2183,7 +2182,7 @@
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="2:12" ht="15">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -2198,7 +2197,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
     </row>
-    <row r="41" spans="2:12" ht="15">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -2213,7 +2212,7 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
     </row>
-    <row r="42" spans="2:12" ht="15">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -2228,7 +2227,7 @@
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
     </row>
-    <row r="43" spans="2:12" ht="15">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -2243,7 +2242,7 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="2:12" ht="15">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -2258,7 +2257,7 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="2:12" ht="15">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -2273,7 +2272,7 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" spans="2:12" ht="15">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -2288,7 +2287,7 @@
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="2:12" ht="15">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -2303,7 +2302,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
     </row>
-    <row r="48" spans="2:12" ht="15">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -2318,7 +2317,7 @@
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
     </row>
-    <row r="49" spans="2:12" ht="15">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -2330,7 +2329,7 @@
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
     </row>
-    <row r="50" spans="2:12" ht="15">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -2342,7 +2341,7 @@
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
     </row>
-    <row r="51" spans="2:12" ht="15">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -2355,7 +2354,7 @@
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
     </row>
-    <row r="52" spans="2:12" ht="15">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -2368,7 +2367,7 @@
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
     </row>
-    <row r="53" spans="2:12" ht="15">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -2381,7 +2380,7 @@
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="2:12" ht="15">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -2394,7 +2393,7 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
     </row>
-    <row r="55" spans="2:12" ht="15">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -2407,7 +2406,7 @@
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
     </row>
-    <row r="56" spans="2:12" ht="15">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -2420,7 +2419,7 @@
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
     </row>
-    <row r="57" spans="2:12" ht="15">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -2433,7 +2432,7 @@
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
     </row>
-    <row r="58" spans="2:12" ht="15">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -2446,7 +2445,7 @@
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
     </row>
-    <row r="59" spans="2:12" ht="15">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -2459,7 +2458,7 @@
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
     </row>
-    <row r="60" spans="2:12" ht="15">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -2472,7 +2471,7 @@
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
     </row>
-    <row r="61" spans="2:12" ht="15">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -2485,7 +2484,7 @@
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
     </row>
-    <row r="62" spans="2:12" ht="15">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -2498,7 +2497,7 @@
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
     </row>
-    <row r="63" spans="2:12" ht="15">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -2511,7 +2510,7 @@
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
     </row>
-    <row r="64" spans="2:12" ht="15">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -2524,7 +2523,7 @@
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
     </row>
-    <row r="65" spans="1:12" ht="15">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -2537,7 +2536,7 @@
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
     </row>
-    <row r="66" spans="1:12" ht="15">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -2550,7 +2549,7 @@
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
     </row>
-    <row r="67" spans="1:12" ht="15">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -2563,7 +2562,7 @@
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
     </row>
-    <row r="68" spans="1:12" ht="15">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -2576,7 +2575,7 @@
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
     </row>
-    <row r="69" spans="1:12" ht="15">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -2589,7 +2588,7 @@
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
     </row>
-    <row r="70" spans="1:12" ht="15">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -2602,7 +2601,7 @@
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
     </row>
-    <row r="71" spans="1:12" ht="15">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -2616,7 +2615,7 @@
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
     </row>
-    <row r="72" spans="1:12" ht="15">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -2630,7 +2629,7 @@
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
     </row>
-    <row r="73" spans="1:12" ht="15">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -2644,7 +2643,7 @@
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
     </row>
-    <row r="74" spans="1:12" ht="15">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -2658,7 +2657,7 @@
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
     </row>
-    <row r="75" spans="1:12" ht="15">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -2672,7 +2671,7 @@
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
     </row>
-    <row r="76" spans="1:12" ht="15">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -2686,7 +2685,7 @@
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
     </row>
-    <row r="77" spans="1:12" ht="15">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -2700,7 +2699,7 @@
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="1:12" ht="15">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -2714,7 +2713,7 @@
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
     </row>
-    <row r="79" spans="1:12" ht="15">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -2728,7 +2727,7 @@
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
     </row>
-    <row r="80" spans="1:12" ht="15">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -2742,7 +2741,7 @@
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
     </row>
-    <row r="81" spans="1:12" ht="15">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -2756,7 +2755,7 @@
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
     </row>
-    <row r="82" spans="1:12" ht="15">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -2770,7 +2769,7 @@
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
     </row>
-    <row r="83" spans="1:12" ht="15">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -2784,7 +2783,7 @@
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
     </row>
-    <row r="84" spans="1:12" ht="15">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -2798,7 +2797,7 @@
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
     </row>
-    <row r="85" spans="1:12" ht="15">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -2812,7 +2811,7 @@
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
     </row>
-    <row r="86" spans="1:12" ht="15">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -2826,7 +2825,7 @@
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
     </row>
-    <row r="87" spans="1:12" ht="15">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -2840,7 +2839,7 @@
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
     </row>
-    <row r="88" spans="1:12" ht="15">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -2854,7 +2853,7 @@
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
     </row>
-    <row r="89" spans="1:12" ht="15">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -2868,7 +2867,7 @@
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
     </row>
-    <row r="90" spans="1:12" ht="15">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -2882,7 +2881,7 @@
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
     </row>
-    <row r="91" spans="1:12" ht="15">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -2896,7 +2895,7 @@
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
     </row>
-    <row r="92" spans="1:12" ht="15">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -2910,7 +2909,7 @@
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
     </row>
-    <row r="93" spans="1:12" ht="15">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -2924,7 +2923,7 @@
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
     </row>
-    <row r="94" spans="1:12" ht="15">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -2938,7 +2937,7 @@
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
     </row>
-    <row r="95" spans="1:12" ht="15">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -2952,7 +2951,7 @@
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
     </row>
-    <row r="96" spans="1:12" ht="15">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -2966,7 +2965,7 @@
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
     </row>
-    <row r="97" spans="1:12" ht="15">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -2980,7 +2979,7 @@
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
     </row>
-    <row r="98" spans="1:12" ht="15">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -2994,7 +2993,7 @@
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
     </row>
-    <row r="99" spans="1:12" ht="15">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -3008,7 +3007,7 @@
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
     </row>
-    <row r="100" spans="1:12" ht="15">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -3022,7 +3021,7 @@
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
     </row>
-    <row r="101" spans="1:12" ht="15">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -3036,7 +3035,7 @@
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
     </row>
-    <row r="102" spans="1:12" ht="15">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -3050,7 +3049,7 @@
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
     </row>
-    <row r="103" spans="1:12" ht="15">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -3064,7 +3063,7 @@
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
     </row>
-    <row r="104" spans="1:12" ht="15">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -3078,7 +3077,7 @@
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
     </row>
-    <row r="105" spans="1:12" ht="15">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -3092,7 +3091,7 @@
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
     </row>
-    <row r="106" spans="1:12" ht="15">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -3106,7 +3105,7 @@
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
     </row>
-    <row r="107" spans="1:12" ht="15">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -3120,7 +3119,7 @@
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
     </row>
-    <row r="108" spans="1:12" ht="15">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -3134,7 +3133,7 @@
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
     </row>
-    <row r="109" spans="1:12" ht="15">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -3148,7 +3147,7 @@
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
     </row>
-    <row r="110" spans="1:12" ht="15">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -3162,7 +3161,7 @@
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
     </row>
-    <row r="111" spans="1:12" ht="15">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -3176,7 +3175,7 @@
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
     </row>
-    <row r="112" spans="1:12" ht="15">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -3190,7 +3189,7 @@
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
     </row>
-    <row r="113" spans="1:12" ht="15">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -3204,7 +3203,7 @@
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
     </row>
-    <row r="114" spans="1:12" ht="15">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -3218,7 +3217,7 @@
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
     </row>
-    <row r="115" spans="1:12" ht="15">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -3232,7 +3231,7 @@
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
     </row>
-    <row r="116" spans="1:12" ht="15">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -3246,7 +3245,7 @@
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
     </row>
-    <row r="117" spans="1:12" ht="15">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -3260,7 +3259,7 @@
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
     </row>
-    <row r="118" spans="1:12" ht="15">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -3274,7 +3273,7 @@
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
     </row>
-    <row r="119" spans="1:12" ht="15">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -3288,7 +3287,7 @@
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
     </row>
-    <row r="120" spans="1:12" ht="15">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -3302,7 +3301,7 @@
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
     </row>
-    <row r="121" spans="1:12" ht="15">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -3316,7 +3315,7 @@
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
     </row>
-    <row r="122" spans="1:12" ht="15">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -3330,7 +3329,7 @@
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
     </row>
-    <row r="123" spans="1:12" ht="15">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -3344,7 +3343,7 @@
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
     </row>
-    <row r="124" spans="1:12" ht="15">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -3358,7 +3357,7 @@
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
     </row>
-    <row r="125" spans="1:12" ht="15">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -3372,7 +3371,7 @@
       <c r="K125" s="6"/>
       <c r="L125" s="6"/>
     </row>
-    <row r="126" spans="1:12" ht="15">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -3386,7 +3385,7 @@
       <c r="K126" s="6"/>
       <c r="L126" s="6"/>
     </row>
-    <row r="127" spans="1:12" ht="15">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -3400,7 +3399,7 @@
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
     </row>
-    <row r="128" spans="1:12" ht="15">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -3414,7 +3413,7 @@
       <c r="K128" s="6"/>
       <c r="L128" s="6"/>
     </row>
-    <row r="129" spans="1:12" ht="15">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -3428,7 +3427,7 @@
       <c r="K129" s="6"/>
       <c r="L129" s="6"/>
     </row>
-    <row r="130" spans="1:12" ht="15">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -3442,7 +3441,7 @@
       <c r="K130" s="6"/>
       <c r="L130" s="6"/>
     </row>
-    <row r="131" spans="1:12" ht="15">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -3456,7 +3455,7 @@
       <c r="K131" s="6"/>
       <c r="L131" s="6"/>
     </row>
-    <row r="132" spans="1:12" ht="15">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -3470,7 +3469,7 @@
       <c r="K132" s="6"/>
       <c r="L132" s="6"/>
     </row>
-    <row r="133" spans="1:12" ht="15">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -3515,36 +3514,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="17.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.5" style="9" customWidth="1"/>
-    <col min="4" max="4" width="36.125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="36.5" style="29" customWidth="1"/>
-    <col min="6" max="6" width="32.875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="58.875" style="14" customWidth="1"/>
-    <col min="8" max="8" width="18.25" style="14" customWidth="1"/>
-    <col min="9" max="9" width="18.875" style="14" customWidth="1"/>
-    <col min="10" max="10" width="43.75" style="14" customWidth="1"/>
-    <col min="11" max="11" width="18.875" style="21" customWidth="1"/>
-    <col min="12" max="12" width="21.625" style="21" customWidth="1"/>
-    <col min="13" max="13" width="13.875" style="21" customWidth="1"/>
-    <col min="14" max="14" width="15.625" style="21" customWidth="1"/>
-    <col min="15" max="15" width="29.25" style="24" customWidth="1"/>
-    <col min="16" max="16" width="21.625" style="24" customWidth="1"/>
-    <col min="17" max="17" width="16.125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.75" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="58.85546875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="43.7109375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" style="21" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" style="21" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="21" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="21" customWidth="1"/>
+    <col min="15" max="15" width="29.28515625" style="24" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="24" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="33.75" customHeight="1">
+    <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -3607,7 +3606,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43"/>
       <c r="B2" s="42"/>
       <c r="C2" s="50"/>
@@ -3634,7 +3633,7 @@
       <c r="T2" s="38"/>
       <c r="U2" s="37"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75">
+    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>18</v>
       </c>
@@ -3659,7 +3658,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K3" s="20" t="s">
         <v>165</v>
@@ -3669,29 +3668,27 @@
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
-      <c r="O3" s="23" t="s">
-        <v>171</v>
-      </c>
+      <c r="O3" s="23"/>
       <c r="P3" s="22" t="s">
         <v>19</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>124</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>18</v>
       </c>
@@ -3707,7 +3704,7 @@
       <c r="E4" s="28"/>
       <c r="F4" s="25"/>
       <c r="G4" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H4" s="13">
         <v>2</v>
@@ -3716,7 +3713,7 @@
         <v>19</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K4" s="20" t="s">
         <v>165</v>
@@ -3731,22 +3728,22 @@
         <v>19</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="S4" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="T4" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="U4" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.75">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>18</v>
       </c>
@@ -3764,7 +3761,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H5" s="13">
         <v>3</v>
@@ -3773,7 +3770,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K5" s="20" t="s">
         <v>168</v>
@@ -3793,19 +3790,19 @@
         <v>6</v>
       </c>
       <c r="R5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="U5" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>18</v>
       </c>
@@ -3823,7 +3820,7 @@
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H6" s="13">
         <v>4</v>
@@ -3832,7 +3829,7 @@
         <v>19</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K6" s="20" t="s">
         <v>168</v>
@@ -3852,19 +3849,19 @@
         <v>6</v>
       </c>
       <c r="R6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="T6" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="U6" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75">
+    </row>
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
@@ -3891,7 +3888,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K7" s="20" t="s">
         <v>168</v>
@@ -3911,19 +3908,19 @@
         <v>6</v>
       </c>
       <c r="R7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="T7" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>18</v>
       </c>
@@ -3956,7 +3953,7 @@
       <c r="T8" s="3"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75">
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>18</v>
       </c>
@@ -3974,7 +3971,7 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H9" s="13">
         <v>6</v>
@@ -3983,7 +3980,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K9" s="20" t="s">
         <v>168</v>
@@ -4003,19 +4000,19 @@
         <v>6</v>
       </c>
       <c r="R9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="S9" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="T9" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.75">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>18</v>
       </c>
@@ -4062,19 +4059,19 @@
         <v>6</v>
       </c>
       <c r="R10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="S10" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="S10" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="T10" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.75">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>18</v>
       </c>
@@ -4121,19 +4118,19 @@
         <v>6</v>
       </c>
       <c r="R11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="S11" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="S11" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="T11" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.75">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>18</v>
       </c>
@@ -4144,7 +4141,7 @@
         <v>123</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="25"/>
@@ -4158,7 +4155,7 @@
         <v>19</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K12" s="20" t="s">
         <v>168</v>
@@ -4178,19 +4175,19 @@
         <v>6</v>
       </c>
       <c r="R12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="S12" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="S12" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="T12" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="15.75">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>18</v>
       </c>
@@ -4201,7 +4198,7 @@
         <v>123</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="25"/>
@@ -4235,19 +4232,19 @@
         <v>6</v>
       </c>
       <c r="R13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="S13" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="S13" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="T13" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="15.75">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>18</v>
       </c>
@@ -4258,14 +4255,14 @@
         <v>123</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E14" s="28" t="s">
         <v>136</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H14" s="13">
         <v>11</v>
@@ -4274,10 +4271,10 @@
         <v>19</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L14" s="20" t="s">
         <v>166</v>
@@ -4285,22 +4282,22 @@
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
       <c r="O14" s="23" t="s">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="P14" s="22" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="3"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75">
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>18</v>
       </c>
@@ -4311,7 +4308,7 @@
         <v>123</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E15" s="28" t="s">
         <v>137</v>
@@ -4333,7 +4330,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:21" ht="15.75">
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>18</v>
       </c>
@@ -4344,14 +4341,14 @@
         <v>123</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>138</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H16" s="13">
         <v>12</v>
@@ -4360,10 +4357,10 @@
         <v>19</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L16" s="20" t="s">
         <v>166</v>
@@ -4371,22 +4368,22 @@
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="23" t="s">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="P16" s="22" t="s">
         <v>19</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="3"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" ht="15.75">
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>18</v>
       </c>
@@ -4397,14 +4394,14 @@
         <v>123</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E17" s="28" t="s">
         <v>139</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H17" s="13">
         <v>13</v>
@@ -4413,10 +4410,10 @@
         <v>19</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L17" s="20" t="s">
         <v>166</v>
@@ -4424,22 +4421,22 @@
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
       <c r="O17" s="23" t="s">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="P17" s="22" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="3"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75">
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>18</v>
       </c>
@@ -4450,7 +4447,7 @@
         <v>123</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>140</v>
@@ -4472,7 +4469,7 @@
       <c r="T18" s="3"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75">
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>18</v>
       </c>
@@ -4483,7 +4480,7 @@
         <v>123</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E19" s="28" t="s">
         <v>141</v>
@@ -4505,7 +4502,7 @@
       <c r="T19" s="3"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" ht="15.75">
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>18</v>
       </c>
@@ -4516,7 +4513,7 @@
         <v>123</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E20" s="28" t="s">
         <v>135</v>
@@ -4532,7 +4529,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K20" s="20" t="s">
         <v>168</v>
@@ -4552,19 +4549,19 @@
         <v>6</v>
       </c>
       <c r="R20" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="S20" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="S20" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="T20" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.75">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>18</v>
       </c>
@@ -4580,7 +4577,7 @@
       <c r="E21" s="28"/>
       <c r="F21" s="25"/>
       <c r="G21" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H21" s="13">
         <v>15</v>
@@ -4589,10 +4586,10 @@
         <v>19</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L21" s="20" t="s">
         <v>166</v>
@@ -4600,22 +4597,22 @@
       <c r="M21" s="20"/>
       <c r="N21" s="20"/>
       <c r="O21" s="23" t="s">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="P21" s="22" t="s">
         <v>19</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="3"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" ht="15.75">
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>18</v>
       </c>
@@ -4631,7 +4628,7 @@
       <c r="E22" s="28"/>
       <c r="F22" s="25"/>
       <c r="G22" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H22" s="13">
         <v>16</v>
@@ -4640,7 +4637,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K22" s="20" t="s">
         <v>168</v>
@@ -4660,19 +4657,19 @@
         <v>6</v>
       </c>
       <c r="R22" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="S22" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="S22" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="T22" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>18</v>
       </c>
@@ -4699,7 +4696,7 @@
         <v>19</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K23" s="20" t="s">
         <v>168</v>
@@ -4719,19 +4716,19 @@
         <v>6</v>
       </c>
       <c r="R23" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="S23" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="S23" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="T23" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.75">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>18</v>
       </c>
@@ -4758,7 +4755,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K24" s="20" t="s">
         <v>168</v>
@@ -4778,19 +4775,19 @@
         <v>6</v>
       </c>
       <c r="R24" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="S24" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="S24" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="T24" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.75">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>18</v>
       </c>
@@ -4801,7 +4798,7 @@
         <v>123</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="27"/>
@@ -4835,19 +4832,19 @@
         <v>6</v>
       </c>
       <c r="R25" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="S25" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="S25" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="T25" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="15.75">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>18</v>
       </c>
@@ -4858,7 +4855,7 @@
         <v>123</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="27"/>
@@ -4892,19 +4889,19 @@
         <v>6</v>
       </c>
       <c r="R26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="S26" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="S26" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="T26" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="15.75">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>18</v>
       </c>
@@ -4915,7 +4912,7 @@
         <v>123</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E27" s="28" t="s">
         <v>135</v>
@@ -4931,7 +4928,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K27" s="20" t="s">
         <v>168</v>
@@ -4951,19 +4948,19 @@
         <v>6</v>
       </c>
       <c r="R27" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="S27" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="S27" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="T27" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="15.75">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>18</v>
       </c>
@@ -4988,7 +4985,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K28" s="20" t="s">
         <v>168</v>
@@ -5008,19 +5005,19 @@
         <v>6</v>
       </c>
       <c r="R28" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="S28" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="S28" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="T28" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="15.75">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>18</v>
       </c>
@@ -5045,7 +5042,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K29" s="20" t="s">
         <v>168</v>
@@ -5065,19 +5062,19 @@
         <v>6</v>
       </c>
       <c r="R29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="S29" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="S29" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="T29" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="15.75">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>18</v>
       </c>
@@ -5122,7 +5119,7 @@
       <c r="T30" s="3"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" ht="15.75">
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
         <v>18</v>
       </c>
@@ -5167,19 +5164,19 @@
         <v>6</v>
       </c>
       <c r="R31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="S31" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="S31" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="T31" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="18.75" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
         <v>18</v>
       </c>
@@ -5224,19 +5221,19 @@
         <v>6</v>
       </c>
       <c r="R32" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="S32" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="S32" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="T32" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="15.75">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="10"/>
       <c r="C33" s="8"/>
@@ -5259,7 +5256,7 @@
       <c r="T33" s="3"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75">
+    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="10"/>
       <c r="C34" s="8"/>
@@ -5282,7 +5279,7 @@
       <c r="T34" s="3"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75">
+    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="10"/>
       <c r="C35" s="8"/>
@@ -5305,7 +5302,7 @@
       <c r="T35" s="3"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75">
+    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="10"/>
       <c r="C36" s="8"/>
@@ -5328,7 +5325,7 @@
       <c r="T36" s="3"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75">
+    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10"/>
       <c r="C37" s="8"/>
@@ -5351,7 +5348,7 @@
       <c r="T37" s="3"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75">
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="10"/>
       <c r="C38" s="8"/>
@@ -5374,7 +5371,7 @@
       <c r="T38" s="3"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75">
+    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="10"/>
       <c r="C39" s="8"/>
@@ -5397,7 +5394,7 @@
       <c r="T39" s="3"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75">
+    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="10"/>
       <c r="C40" s="8"/>
@@ -5420,7 +5417,7 @@
       <c r="T40" s="3"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75">
+    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="10"/>
       <c r="C41" s="8"/>
@@ -5443,187 +5440,187 @@
       <c r="T41" s="3"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
         <v>117</v>
       </c>
